--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_1_site_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_1_site_202310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\oct\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE6783D-BC2B-47DC-BC91-A5A65E502401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF23718-BDB6-4379-95D9-7089048A063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="225">
   <si>
     <t>type</t>
   </si>
@@ -389,63 +389,6 @@
     <t>(2023 Oct) - 1. Site Form</t>
   </si>
   <si>
-    <t>OYO</t>
-  </si>
-  <si>
-    <t>AFIJIO</t>
-  </si>
-  <si>
-    <t>ATIBA</t>
-  </si>
-  <si>
-    <t>ATISBO</t>
-  </si>
-  <si>
-    <t>IBARAPA EAST</t>
-  </si>
-  <si>
-    <t>IDO</t>
-  </si>
-  <si>
-    <t>IREPO</t>
-  </si>
-  <si>
-    <t>ISEYIN</t>
-  </si>
-  <si>
-    <t>ITASEWAJU</t>
-  </si>
-  <si>
-    <t>IWAJOWA</t>
-  </si>
-  <si>
-    <t>LAGELU</t>
-  </si>
-  <si>
-    <t>OGO OLUWA</t>
-  </si>
-  <si>
-    <t>OLORUNSOGO</t>
-  </si>
-  <si>
-    <t>OLUYOLE</t>
-  </si>
-  <si>
-    <t>ORELOPE</t>
-  </si>
-  <si>
-    <t>ORI IRE</t>
-  </si>
-  <si>
-    <t>OYO EAST</t>
-  </si>
-  <si>
-    <t>SAKI EAST</t>
-  </si>
-  <si>
-    <t>SAKI WEST</t>
-  </si>
-  <si>
     <t>IROKO</t>
   </si>
   <si>
@@ -531,6 +474,240 @@
   </si>
   <si>
     <t>IGA IYERE</t>
+  </si>
+  <si>
+    <t>LAGOS</t>
+  </si>
+  <si>
+    <t>AGEGE</t>
+  </si>
+  <si>
+    <t>AJEROMI/IFELODUN</t>
+  </si>
+  <si>
+    <t>ALIMOSHO</t>
+  </si>
+  <si>
+    <t>AMUWO ODOFIN</t>
+  </si>
+  <si>
+    <t>APAPA</t>
+  </si>
+  <si>
+    <t>BADAGRY</t>
+  </si>
+  <si>
+    <t>EPE</t>
+  </si>
+  <si>
+    <t>IBEJU LEKKI</t>
+  </si>
+  <si>
+    <t>IFAKO/IJAYE</t>
+  </si>
+  <si>
+    <t>IKEJA</t>
+  </si>
+  <si>
+    <t>LAGOS ISLAND</t>
+  </si>
+  <si>
+    <t>LAGOS MAINLAND</t>
+  </si>
+  <si>
+    <t>OJO</t>
+  </si>
+  <si>
+    <t>SHOMOLU</t>
+  </si>
+  <si>
+    <t>DOPEMU</t>
+  </si>
+  <si>
+    <t>ISALE OJA</t>
+  </si>
+  <si>
+    <t>MORIKAZ</t>
+  </si>
+  <si>
+    <t>MULERO</t>
+  </si>
+  <si>
+    <t>OKO OBA- ILOBU STREET</t>
+  </si>
+  <si>
+    <t>AMUKOKO</t>
+  </si>
+  <si>
+    <t>AWODI ORA</t>
+  </si>
+  <si>
+    <t>OLODI APAPA/ACHAKPO STREET</t>
+  </si>
+  <si>
+    <t>TEMIDIRE</t>
+  </si>
+  <si>
+    <t>TOLU</t>
+  </si>
+  <si>
+    <t>ABARANJE</t>
+  </si>
+  <si>
+    <t>AGBENAJE IKOLA</t>
+  </si>
+  <si>
+    <t>ALAGBADO</t>
+  </si>
+  <si>
+    <t>IJEDODO</t>
+  </si>
+  <si>
+    <t>IPAJA</t>
+  </si>
+  <si>
+    <t>6TH AVENUE FESTAC TOWN</t>
+  </si>
+  <si>
+    <t>IFESOWAPO ABULE EGUN</t>
+  </si>
+  <si>
+    <t>IREDE</t>
+  </si>
+  <si>
+    <t>IYAGBE</t>
+  </si>
+  <si>
+    <t>TEDI</t>
+  </si>
+  <si>
+    <t>BADIA</t>
+  </si>
+  <si>
+    <t>IJORAOLOYE</t>
+  </si>
+  <si>
+    <t>MARINE</t>
+  </si>
+  <si>
+    <t>GHAME</t>
+  </si>
+  <si>
+    <t>ITOHUN</t>
+  </si>
+  <si>
+    <t>MOBA</t>
+  </si>
+  <si>
+    <t>PASHI</t>
+  </si>
+  <si>
+    <t>ZONGO</t>
+  </si>
+  <si>
+    <t>EBUTE</t>
+  </si>
+  <si>
+    <t>IWOYE/ITOKIN</t>
+  </si>
+  <si>
+    <t>MOJODA</t>
+  </si>
+  <si>
+    <t>SEKUNGBA</t>
+  </si>
+  <si>
+    <t>BOJIGE</t>
+  </si>
+  <si>
+    <t>GODWILL ESTATE TOWN</t>
+  </si>
+  <si>
+    <t>IBAOLOJA</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>TIYE COMMUNITY</t>
+  </si>
+  <si>
+    <t>ADETIBA</t>
+  </si>
+  <si>
+    <t>IJU ISHAGA</t>
+  </si>
+  <si>
+    <t>ISAGA</t>
+  </si>
+  <si>
+    <t>OBAWOLE</t>
+  </si>
+  <si>
+    <t>OGBA OLUWOLE//IJAIYE OKERA</t>
+  </si>
+  <si>
+    <t>AGUDA</t>
+  </si>
+  <si>
+    <t>AINA STR/ADEBOWALE STR</t>
+  </si>
+  <si>
+    <t>OLUSOSUN</t>
+  </si>
+  <si>
+    <t>YAKOYO/OJODU</t>
+  </si>
+  <si>
+    <t>AGARAWU</t>
+  </si>
+  <si>
+    <t>BALOGUN</t>
+  </si>
+  <si>
+    <t>EBUTE ELEFUN/ZAPASS</t>
+  </si>
+  <si>
+    <t>FORESYTHE</t>
+  </si>
+  <si>
+    <t>KAKAWA</t>
+  </si>
+  <si>
+    <t>ABULE IJESHA</t>
+  </si>
+  <si>
+    <t>ADERUPOKO-IJEBU QUARTERS</t>
+  </si>
+  <si>
+    <t>ONIKE OYADIRAN</t>
+  </si>
+  <si>
+    <t>SALAMI</t>
+  </si>
+  <si>
+    <t>AGELETE</t>
+  </si>
+  <si>
+    <t>ANIBABA</t>
+  </si>
+  <si>
+    <t>ORISE IMUDE</t>
+  </si>
+  <si>
+    <t>OTO AWORI</t>
+  </si>
+  <si>
+    <t>HUMUANI</t>
+  </si>
+  <si>
+    <t>IGBARI/OJO SQUARE</t>
+  </si>
+  <si>
+    <t>PALMGROVE</t>
+  </si>
+  <si>
+    <t>PEDRO/BANKOLE STREET</t>
   </si>
 </sst>
 </file>
@@ -1448,11 +1625,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103:XFD110"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104:XFD104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1745,10 +1922,10 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1756,13 +1933,13 @@
         <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1770,13 +1947,13 @@
         <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1784,13 +1961,13 @@
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C27" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1798,13 +1975,13 @@
         <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1812,13 +1989,13 @@
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1826,13 +2003,13 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C30" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1840,13 +2017,13 @@
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1854,13 +2031,13 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1868,13 +2045,13 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>156</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1882,13 +2059,13 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1896,13 +2073,13 @@
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1910,13 +2087,13 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1924,13 +2101,13 @@
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1938,69 +2115,69 @@
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" t="s">
-        <v>133</v>
-      </c>
-      <c r="C39" t="s">
-        <v>133</v>
-      </c>
-      <c r="D39" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
+        <v>162</v>
+      </c>
+      <c r="E40" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" t="s">
-        <v>118</v>
+        <v>163</v>
+      </c>
+      <c r="E41" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" t="s">
-        <v>118</v>
+        <v>164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2008,13 +2185,13 @@
         <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>119</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2022,13 +2199,13 @@
         <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>167</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2036,13 +2213,13 @@
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E46" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2050,13 +2227,13 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2064,13 +2241,13 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="C48" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2078,13 +2255,13 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="C49" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E49" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2092,13 +2269,13 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2106,13 +2283,13 @@
         <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E51" t="s">
-        <v>124</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2120,13 +2297,13 @@
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E52" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2134,13 +2311,13 @@
         <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C53" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2148,13 +2325,13 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="C54" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2162,13 +2339,13 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2176,13 +2353,13 @@
         <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="E56" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2190,13 +2367,13 @@
         <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2204,13 +2381,13 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="E58" t="s">
         <v>151</v>
-      </c>
-      <c r="C58" t="s">
-        <v>151</v>
-      </c>
-      <c r="E58" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2218,13 +2395,13 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2232,13 +2409,13 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="E60" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2246,13 +2423,13 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>183</v>
       </c>
       <c r="E61" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2260,13 +2437,13 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2274,13 +2451,13 @@
         <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
+        <v>185</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2288,537 +2465,971 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" t="s">
+        <v>187</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="E66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" t="s">
+        <v>189</v>
+      </c>
+      <c r="E67" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>190</v>
+      </c>
+      <c r="E68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" t="s">
+        <v>192</v>
+      </c>
+      <c r="E70" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="E71" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>195</v>
+      </c>
+      <c r="E73" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>89</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="E75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>89</v>
+      </c>
+      <c r="B77" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" t="s">
+        <v>199</v>
+      </c>
+      <c r="E77" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" t="s">
+        <v>200</v>
+      </c>
+      <c r="E78" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="E79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" t="s">
+        <v>202</v>
+      </c>
+      <c r="C80" t="s">
+        <v>202</v>
+      </c>
+      <c r="E80" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" t="s">
+        <v>203</v>
+      </c>
+      <c r="E81" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>89</v>
+      </c>
+      <c r="B82" t="s">
+        <v>204</v>
+      </c>
+      <c r="C82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" t="s">
         <v>157</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" t="s">
+        <v>205</v>
+      </c>
+      <c r="C83" t="s">
+        <v>205</v>
+      </c>
+      <c r="E83" t="s">
         <v>157</v>
       </c>
-      <c r="E64" t="s">
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>206</v>
+      </c>
+      <c r="C84" t="s">
+        <v>206</v>
+      </c>
+      <c r="E84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" t="s">
+        <v>207</v>
+      </c>
+      <c r="C86" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>208</v>
+      </c>
+      <c r="C87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" t="s">
+        <v>209</v>
+      </c>
+      <c r="E88" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>211</v>
+      </c>
+      <c r="C90" t="s">
+        <v>211</v>
+      </c>
+      <c r="E90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>212</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="E91" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="B92" t="s">
+        <v>213</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="E92" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E93" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C94" t="s">
+        <v>215</v>
+      </c>
+      <c r="E94" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="B95" t="s">
+        <v>216</v>
+      </c>
+      <c r="C95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+      <c r="B96" t="s">
+        <v>217</v>
+      </c>
+      <c r="C96" t="s">
+        <v>217</v>
+      </c>
+      <c r="E96" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>218</v>
+      </c>
+      <c r="C97" t="s">
+        <v>218</v>
+      </c>
+      <c r="E97" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s">
+        <v>221</v>
+      </c>
+      <c r="E100" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" t="s">
+        <v>223</v>
+      </c>
+      <c r="C102" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" t="s">
+        <v>224</v>
+      </c>
+      <c r="C103" t="s">
+        <v>224</v>
+      </c>
+      <c r="E103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105">
+        <v>101</v>
+      </c>
+      <c r="C105">
+        <v>101</v>
+      </c>
+      <c r="F105" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>102</v>
+      </c>
+      <c r="C106">
+        <v>102</v>
+      </c>
+      <c r="F106" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107">
+        <v>103</v>
+      </c>
+      <c r="C107">
+        <v>103</v>
+      </c>
+      <c r="F107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B108">
+        <v>104</v>
+      </c>
+      <c r="C108">
+        <v>104</v>
+      </c>
+      <c r="F108" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109">
+        <v>105</v>
+      </c>
+      <c r="C109">
+        <v>105</v>
+      </c>
+      <c r="F109" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>106</v>
+      </c>
+      <c r="C110">
+        <v>106</v>
+      </c>
+      <c r="F110" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>107</v>
+      </c>
+      <c r="C111">
+        <v>107</v>
+      </c>
+      <c r="F111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>108</v>
+      </c>
+      <c r="C112">
+        <v>108</v>
+      </c>
+      <c r="F112" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>109</v>
+      </c>
+      <c r="C113">
+        <v>109</v>
+      </c>
+      <c r="F113" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>110</v>
+      </c>
+      <c r="C114">
+        <v>110</v>
+      </c>
+      <c r="F114" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B115">
+        <v>111</v>
+      </c>
+      <c r="C115">
+        <v>111</v>
+      </c>
+      <c r="F115" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <v>112</v>
+      </c>
+      <c r="C116">
+        <v>112</v>
+      </c>
+      <c r="F116" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B117">
+        <v>113</v>
+      </c>
+      <c r="C117">
+        <v>113</v>
+      </c>
+      <c r="F117" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B118">
+        <v>114</v>
+      </c>
+      <c r="C118">
+        <v>114</v>
+      </c>
+      <c r="F118" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" t="s">
-        <v>158</v>
-      </c>
-      <c r="C65" t="s">
-        <v>158</v>
-      </c>
-      <c r="E65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" t="s">
-        <v>159</v>
-      </c>
-      <c r="E66" t="s">
+    <row r="119" spans="1:6">
+      <c r="A119" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B119">
+        <v>115</v>
+      </c>
+      <c r="C119">
+        <v>115</v>
+      </c>
+      <c r="F119" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" t="s">
-        <v>160</v>
-      </c>
-      <c r="E67" t="s">
+    <row r="120" spans="1:6">
+      <c r="A120" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120">
+        <v>116</v>
+      </c>
+      <c r="C120">
+        <v>116</v>
+      </c>
+      <c r="F120" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" t="s">
-        <v>161</v>
-      </c>
-      <c r="E68" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" t="s">
-        <v>162</v>
-      </c>
-      <c r="C69" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" t="s">
+    <row r="121" spans="1:6">
+      <c r="A121" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B121">
+        <v>117</v>
+      </c>
+      <c r="C121">
+        <v>117</v>
+      </c>
+      <c r="F121" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B70" t="s">
-        <v>163</v>
-      </c>
-      <c r="C70" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" t="s">
+    <row r="122" spans="1:6">
+      <c r="A122" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122">
+        <v>118</v>
+      </c>
+      <c r="C122">
+        <v>118</v>
+      </c>
+      <c r="F122" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>89</v>
-      </c>
-      <c r="B71" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" t="s">
-        <v>164</v>
-      </c>
-      <c r="E71" t="s">
+    <row r="123" spans="1:6">
+      <c r="A123" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B123">
+        <v>119</v>
+      </c>
+      <c r="C123">
+        <v>119</v>
+      </c>
+      <c r="F123" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" t="s">
-        <v>165</v>
-      </c>
-      <c r="C72" t="s">
-        <v>165</v>
-      </c>
-      <c r="E72" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="12" t="s">
+    <row r="124" spans="1:6">
+      <c r="A124" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B74">
-        <v>101</v>
-      </c>
-      <c r="C74">
-        <v>101</v>
-      </c>
-      <c r="F74" t="s">
+      <c r="B124">
+        <v>120</v>
+      </c>
+      <c r="C124">
+        <v>120</v>
+      </c>
+      <c r="F124" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="12" t="s">
+    <row r="125" spans="1:6">
+      <c r="A125" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B75">
-        <v>102</v>
-      </c>
-      <c r="C75">
-        <v>102</v>
-      </c>
-      <c r="F75" t="s">
+      <c r="B125">
+        <v>121</v>
+      </c>
+      <c r="C125">
+        <v>121</v>
+      </c>
+      <c r="F125" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="12" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B76">
-        <v>103</v>
-      </c>
-      <c r="C76">
-        <v>103</v>
-      </c>
-      <c r="F76" t="s">
+      <c r="B126">
+        <v>122</v>
+      </c>
+      <c r="C126">
+        <v>122</v>
+      </c>
+      <c r="F126" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="12" t="s">
+    <row r="127" spans="1:6">
+      <c r="A127" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B77">
-        <v>104</v>
-      </c>
-      <c r="C77">
-        <v>104</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="B127">
+        <v>123</v>
+      </c>
+      <c r="C127">
+        <v>123</v>
+      </c>
+      <c r="F127" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="12" t="s">
+    <row r="128" spans="1:6">
+      <c r="A128" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B78">
-        <v>105</v>
-      </c>
-      <c r="C78">
-        <v>105</v>
-      </c>
-      <c r="F78" t="s">
+      <c r="B128">
+        <v>124</v>
+      </c>
+      <c r="C128">
+        <v>124</v>
+      </c>
+      <c r="F128" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="12" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B79">
-        <v>106</v>
-      </c>
-      <c r="C79">
-        <v>106</v>
-      </c>
-      <c r="F79" t="s">
+      <c r="B129">
+        <v>125</v>
+      </c>
+      <c r="C129">
+        <v>125</v>
+      </c>
+      <c r="F129" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="12" t="s">
+    <row r="130" spans="1:6">
+      <c r="A130" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B80">
-        <v>107</v>
-      </c>
-      <c r="C80">
-        <v>107</v>
-      </c>
-      <c r="F80" t="s">
+      <c r="B130">
+        <v>126</v>
+      </c>
+      <c r="C130">
+        <v>126</v>
+      </c>
+      <c r="F130" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="12" t="s">
+    <row r="131" spans="1:6">
+      <c r="A131" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B81">
-        <v>108</v>
-      </c>
-      <c r="C81">
-        <v>108</v>
-      </c>
-      <c r="F81" t="s">
+      <c r="B131">
+        <v>127</v>
+      </c>
+      <c r="C131">
+        <v>127</v>
+      </c>
+      <c r="F131" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="12" t="s">
+    <row r="132" spans="1:6">
+      <c r="A132" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B82">
-        <v>109</v>
-      </c>
-      <c r="C82">
-        <v>109</v>
-      </c>
-      <c r="F82" t="s">
+      <c r="B132">
+        <v>128</v>
+      </c>
+      <c r="C132">
+        <v>128</v>
+      </c>
+      <c r="F132" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="12" t="s">
+    <row r="133" spans="1:6">
+      <c r="A133" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B83">
-        <v>110</v>
-      </c>
-      <c r="C83">
-        <v>110</v>
-      </c>
-      <c r="F83" t="s">
+      <c r="B133">
+        <v>129</v>
+      </c>
+      <c r="C133">
+        <v>129</v>
+      </c>
+      <c r="F133" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B84">
-        <v>111</v>
-      </c>
-      <c r="C84">
-        <v>111</v>
-      </c>
-      <c r="F84" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85">
-        <v>112</v>
-      </c>
-      <c r="C85">
-        <v>112</v>
-      </c>
-      <c r="F85" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B86">
-        <v>113</v>
-      </c>
-      <c r="C86">
-        <v>113</v>
-      </c>
-      <c r="F86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B87">
-        <v>114</v>
-      </c>
-      <c r="C87">
-        <v>114</v>
-      </c>
-      <c r="F87" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88">
-        <v>115</v>
-      </c>
-      <c r="C88">
-        <v>115</v>
-      </c>
-      <c r="F88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B89">
-        <v>116</v>
-      </c>
-      <c r="C89">
-        <v>116</v>
-      </c>
-      <c r="F89" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B90">
-        <v>117</v>
-      </c>
-      <c r="C90">
-        <v>117</v>
-      </c>
-      <c r="F90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B91">
-        <v>118</v>
-      </c>
-      <c r="C91">
-        <v>118</v>
-      </c>
-      <c r="F91" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B92">
-        <v>119</v>
-      </c>
-      <c r="C92">
-        <v>119</v>
-      </c>
-      <c r="F92" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B93">
-        <v>120</v>
-      </c>
-      <c r="C93">
-        <v>120</v>
-      </c>
-      <c r="F93" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B94">
-        <v>121</v>
-      </c>
-      <c r="C94">
-        <v>121</v>
-      </c>
-      <c r="F94" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B95">
-        <v>122</v>
-      </c>
-      <c r="C95">
-        <v>122</v>
-      </c>
-      <c r="F95" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B96">
-        <v>123</v>
-      </c>
-      <c r="C96">
-        <v>123</v>
-      </c>
-      <c r="F96" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B97">
-        <v>124</v>
-      </c>
-      <c r="C97">
-        <v>124</v>
-      </c>
-      <c r="F97" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B98">
-        <v>125</v>
-      </c>
-      <c r="C98">
-        <v>125</v>
-      </c>
-      <c r="F98" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B99">
-        <v>126</v>
-      </c>
-      <c r="C99">
-        <v>126</v>
-      </c>
-      <c r="F99" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B100">
-        <v>127</v>
-      </c>
-      <c r="C100">
-        <v>127</v>
-      </c>
-      <c r="F100" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B101">
-        <v>128</v>
-      </c>
-      <c r="C101">
-        <v>128</v>
-      </c>
-      <c r="F101" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B102">
-        <v>129</v>
-      </c>
-      <c r="C102">
-        <v>129</v>
-      </c>
-      <c r="F102" t="s">
-        <v>165</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A48:E55">
-    <sortCondition ref="A48:A55"/>
-    <sortCondition ref="E48:E55"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A44:E51">
+    <sortCondition ref="A44:A51"/>
+    <sortCondition ref="E44:E51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_1_site_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_1_site_202310.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF23718-BDB6-4379-95D9-7089048A063E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50520AF-6782-41F0-80BC-FBBB72C4C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="197">
   <si>
     <t>type</t>
   </si>
@@ -383,99 +383,9 @@
     <t>English</t>
   </si>
   <si>
-    <t>ng_oncho_stop_1_site_202310</t>
-  </si>
-  <si>
-    <t>(2023 Oct) - 1. Site Form</t>
-  </si>
-  <si>
-    <t>IROKO</t>
-  </si>
-  <si>
-    <t>IGBOBURO</t>
-  </si>
-  <si>
-    <t>AGO ARE</t>
-  </si>
-  <si>
-    <t>OFIKI</t>
-  </si>
-  <si>
-    <t>AKERORO</t>
-  </si>
-  <si>
-    <t>OPO-OGEDE</t>
-  </si>
-  <si>
-    <t>OMI ADIO</t>
-  </si>
-  <si>
-    <t>KISI</t>
-  </si>
-  <si>
-    <t>APENPE</t>
-  </si>
-  <si>
-    <t>ODO OGUN</t>
-  </si>
-  <si>
-    <t>BALELAYO</t>
-  </si>
-  <si>
-    <t>IPAPO</t>
-  </si>
-  <si>
-    <t>OKAKA</t>
-  </si>
-  <si>
-    <t>OKE-AMU</t>
-  </si>
-  <si>
-    <t>AFANYE</t>
-  </si>
-  <si>
-    <t>ITASA</t>
-  </si>
-  <si>
     <t>WASIMI</t>
   </si>
   <si>
-    <t>APATERE</t>
-  </si>
-  <si>
-    <t>IDI-ARABA</t>
-  </si>
-  <si>
-    <t>OTAMAKUN</t>
-  </si>
-  <si>
-    <t>IGBETTI</t>
-  </si>
-  <si>
-    <t>OLONDE</t>
-  </si>
-  <si>
-    <t>IGBOHO</t>
-  </si>
-  <si>
-    <t>ABUGAGA</t>
-  </si>
-  <si>
-    <t>ALADERE</t>
-  </si>
-  <si>
-    <t>ELEJA</t>
-  </si>
-  <si>
-    <t>SEPETERI</t>
-  </si>
-  <si>
-    <t>BUDI IGE</t>
-  </si>
-  <si>
-    <t>IGA IYERE</t>
-  </si>
-  <si>
     <t>LAGOS</t>
   </si>
   <si>
@@ -708,6 +618,12 @@
   </si>
   <si>
     <t>PEDRO/BANKOLE STREET</t>
+  </si>
+  <si>
+    <t>ng_oncho_oem_1_site_202310</t>
+  </si>
+  <si>
+    <t>(2023 Oct) - 1. Site Form (Lagos)</t>
   </si>
 </sst>
 </file>
@@ -1625,11 +1541,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104:XFD104"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1638,6 +1554,7 @@
     <col min="2" max="2" width="39.625" customWidth="1"/>
     <col min="3" max="3" width="23.75" customWidth="1"/>
     <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1922,10 +1839,10 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1933,13 +1850,13 @@
         <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1947,13 +1864,13 @@
         <v>88</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1961,13 +1878,13 @@
         <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1975,13 +1892,13 @@
         <v>88</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1989,13 +1906,13 @@
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2003,13 +1920,13 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2017,13 +1934,13 @@
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2031,13 +1948,13 @@
         <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2045,13 +1962,13 @@
         <v>88</v>
       </c>
       <c r="B33" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2059,13 +1976,13 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2073,13 +1990,13 @@
         <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D35" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2087,13 +2004,13 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2101,13 +2018,13 @@
         <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2115,13 +2032,13 @@
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2129,13 +2046,13 @@
         <v>89</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="E40" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2143,13 +2060,13 @@
         <v>89</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="C41" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2157,13 +2074,13 @@
         <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C42" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E42" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2171,13 +2088,13 @@
         <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2185,13 +2102,13 @@
         <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2199,13 +2116,13 @@
         <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2213,13 +2130,13 @@
         <v>89</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2227,13 +2144,13 @@
         <v>89</v>
       </c>
       <c r="B47" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="E47" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2241,13 +2158,13 @@
         <v>89</v>
       </c>
       <c r="B48" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2255,13 +2172,13 @@
         <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2269,13 +2186,13 @@
         <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="E50" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2283,13 +2200,13 @@
         <v>89</v>
       </c>
       <c r="B51" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C51" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2297,13 +2214,13 @@
         <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="E52" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2311,13 +2228,13 @@
         <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2325,13 +2242,13 @@
         <v>89</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2339,13 +2256,13 @@
         <v>89</v>
       </c>
       <c r="B55" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2353,13 +2270,13 @@
         <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2367,13 +2284,13 @@
         <v>89</v>
       </c>
       <c r="B57" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="E57" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2381,13 +2298,13 @@
         <v>89</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2395,13 +2312,13 @@
         <v>89</v>
       </c>
       <c r="B59" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="E59" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2409,13 +2326,13 @@
         <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2423,13 +2340,13 @@
         <v>89</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2437,13 +2354,13 @@
         <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2451,13 +2368,13 @@
         <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="C63" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2465,13 +2382,13 @@
         <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2479,13 +2396,13 @@
         <v>89</v>
       </c>
       <c r="B65" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2493,13 +2410,13 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2507,13 +2424,13 @@
         <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2521,13 +2438,13 @@
         <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C68" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="E68" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2535,13 +2452,13 @@
         <v>89</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2549,13 +2466,13 @@
         <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="C70" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="E70" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2563,13 +2480,13 @@
         <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="E71" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2577,13 +2494,13 @@
         <v>89</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E72" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2591,13 +2508,13 @@
         <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="C73" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="E73" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2605,13 +2522,13 @@
         <v>89</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C74" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="E74" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2619,13 +2536,13 @@
         <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C75" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2633,13 +2550,13 @@
         <v>89</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2647,13 +2564,13 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="C77" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="E77" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2661,13 +2578,13 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="C78" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E78" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2675,13 +2592,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="C79" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2689,13 +2606,13 @@
         <v>89</v>
       </c>
       <c r="B80" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2703,13 +2620,13 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="E81" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2717,13 +2634,13 @@
         <v>89</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2731,13 +2648,13 @@
         <v>89</v>
       </c>
       <c r="B83" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2745,13 +2662,13 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="C84" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2759,13 +2676,13 @@
         <v>89</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="C85" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2773,13 +2690,13 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2787,13 +2704,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
       <c r="E87" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2801,13 +2718,13 @@
         <v>89</v>
       </c>
       <c r="B88" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="C88" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="E88" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2815,13 +2732,13 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C89" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E89" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2829,13 +2746,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="E90" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2843,13 +2760,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2857,13 +2774,13 @@
         <v>89</v>
       </c>
       <c r="B92" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E92" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2871,13 +2788,13 @@
         <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="C93" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="E93" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2885,13 +2802,13 @@
         <v>89</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="C94" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2899,13 +2816,13 @@
         <v>89</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="E95" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2913,13 +2830,13 @@
         <v>89</v>
       </c>
       <c r="B96" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2927,13 +2844,13 @@
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="E97" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2941,13 +2858,13 @@
         <v>89</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2955,13 +2872,13 @@
         <v>89</v>
       </c>
       <c r="B99" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E99" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2969,13 +2886,13 @@
         <v>89</v>
       </c>
       <c r="B100" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="C100" t="s">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c r="E100" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2983,13 +2900,13 @@
         <v>89</v>
       </c>
       <c r="B101" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>222</v>
+        <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2997,13 +2914,13 @@
         <v>89</v>
       </c>
       <c r="B102" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3011,13 +2928,13 @@
         <v>89</v>
       </c>
       <c r="B103" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="C103" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="E103" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3025,13 +2942,13 @@
         <v>111</v>
       </c>
       <c r="B105">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="C105">
-        <v>101</v>
+        <v>401</v>
       </c>
       <c r="F105" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3039,13 +2956,13 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="C106">
-        <v>102</v>
+        <v>402</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3053,13 +2970,13 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="C107">
-        <v>103</v>
+        <v>403</v>
       </c>
       <c r="F107" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3067,13 +2984,13 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="C108">
-        <v>104</v>
+        <v>404</v>
       </c>
       <c r="F108" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3081,13 +2998,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="C109">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3095,13 +3012,13 @@
         <v>111</v>
       </c>
       <c r="B110">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="C110">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3109,13 +3026,13 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="C111">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="F111" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3123,13 +3040,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="C112">
-        <v>108</v>
+        <v>408</v>
       </c>
       <c r="F112" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3137,13 +3054,13 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>109</v>
+        <v>409</v>
       </c>
       <c r="C113">
-        <v>109</v>
+        <v>409</v>
       </c>
       <c r="F113" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3151,13 +3068,13 @@
         <v>111</v>
       </c>
       <c r="B114">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="C114">
-        <v>110</v>
+        <v>410</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3165,13 +3082,13 @@
         <v>111</v>
       </c>
       <c r="B115">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="C115">
-        <v>111</v>
+        <v>411</v>
       </c>
       <c r="F115" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3179,13 +3096,13 @@
         <v>111</v>
       </c>
       <c r="B116">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="C116">
-        <v>112</v>
+        <v>412</v>
       </c>
       <c r="F116" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3193,13 +3110,13 @@
         <v>111</v>
       </c>
       <c r="B117">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="C117">
-        <v>113</v>
+        <v>413</v>
       </c>
       <c r="F117" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3207,13 +3124,13 @@
         <v>111</v>
       </c>
       <c r="B118">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="C118">
-        <v>114</v>
+        <v>414</v>
       </c>
       <c r="F118" t="s">
-        <v>130</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3221,13 +3138,13 @@
         <v>111</v>
       </c>
       <c r="B119">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="C119">
-        <v>115</v>
+        <v>415</v>
       </c>
       <c r="F119" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3235,13 +3152,13 @@
         <v>111</v>
       </c>
       <c r="B120">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="C120">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="F120" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3249,13 +3166,13 @@
         <v>111</v>
       </c>
       <c r="B121">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="C121">
-        <v>117</v>
+        <v>417</v>
       </c>
       <c r="F121" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3263,13 +3180,13 @@
         <v>111</v>
       </c>
       <c r="B122">
-        <v>118</v>
+        <v>418</v>
       </c>
       <c r="C122">
-        <v>118</v>
+        <v>418</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3277,13 +3194,13 @@
         <v>111</v>
       </c>
       <c r="B123">
-        <v>119</v>
+        <v>419</v>
       </c>
       <c r="C123">
-        <v>119</v>
+        <v>419</v>
       </c>
       <c r="F123" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3291,13 +3208,13 @@
         <v>111</v>
       </c>
       <c r="B124">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="C124">
-        <v>120</v>
+        <v>420</v>
       </c>
       <c r="F124" t="s">
-        <v>137</v>
+        <v>194</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3305,13 +3222,13 @@
         <v>111</v>
       </c>
       <c r="B125">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="C125">
-        <v>121</v>
+        <v>421</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3319,13 +3236,13 @@
         <v>111</v>
       </c>
       <c r="B126">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="C126">
-        <v>122</v>
+        <v>422</v>
       </c>
       <c r="F126" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3333,13 +3250,13 @@
         <v>111</v>
       </c>
       <c r="B127">
-        <v>123</v>
+        <v>423</v>
       </c>
       <c r="C127">
-        <v>123</v>
+        <v>423</v>
       </c>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3347,13 +3264,13 @@
         <v>111</v>
       </c>
       <c r="B128">
-        <v>124</v>
+        <v>424</v>
       </c>
       <c r="C128">
-        <v>124</v>
+        <v>424</v>
       </c>
       <c r="F128" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3361,13 +3278,13 @@
         <v>111</v>
       </c>
       <c r="B129">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="C129">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="F129" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3375,13 +3292,13 @@
         <v>111</v>
       </c>
       <c r="B130">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="C130">
-        <v>126</v>
+        <v>426</v>
       </c>
       <c r="F130" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3389,13 +3306,13 @@
         <v>111</v>
       </c>
       <c r="B131">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="C131">
-        <v>127</v>
+        <v>427</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3403,13 +3320,13 @@
         <v>111</v>
       </c>
       <c r="B132">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="C132">
-        <v>128</v>
+        <v>428</v>
       </c>
       <c r="F132" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3417,13 +3334,503 @@
         <v>111</v>
       </c>
       <c r="B133">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="C133">
-        <v>129</v>
+        <v>429</v>
       </c>
       <c r="F133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134">
+        <v>430</v>
+      </c>
+      <c r="C134">
+        <v>430</v>
+      </c>
+      <c r="F134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135">
+        <v>431</v>
+      </c>
+      <c r="C135">
+        <v>431</v>
+      </c>
+      <c r="F135" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B136">
+        <v>432</v>
+      </c>
+      <c r="C136">
+        <v>432</v>
+      </c>
+      <c r="F136" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137">
+        <v>433</v>
+      </c>
+      <c r="C137">
+        <v>433</v>
+      </c>
+      <c r="F137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B138">
+        <v>434</v>
+      </c>
+      <c r="C138">
+        <v>434</v>
+      </c>
+      <c r="F138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139">
+        <v>435</v>
+      </c>
+      <c r="C139">
+        <v>435</v>
+      </c>
+      <c r="F139" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140">
+        <v>436</v>
+      </c>
+      <c r="C140">
+        <v>436</v>
+      </c>
+      <c r="F140" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B141">
+        <v>437</v>
+      </c>
+      <c r="C141">
+        <v>437</v>
+      </c>
+      <c r="F141" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B142">
+        <v>438</v>
+      </c>
+      <c r="C142">
+        <v>438</v>
+      </c>
+      <c r="F142" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B143">
+        <v>439</v>
+      </c>
+      <c r="C143">
+        <v>439</v>
+      </c>
+      <c r="F143" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B144">
+        <v>440</v>
+      </c>
+      <c r="C144">
+        <v>440</v>
+      </c>
+      <c r="F144" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B145">
+        <v>441</v>
+      </c>
+      <c r="C145">
+        <v>441</v>
+      </c>
+      <c r="F145" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B146">
+        <v>442</v>
+      </c>
+      <c r="C146">
+        <v>442</v>
+      </c>
+      <c r="F146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B147">
+        <v>443</v>
+      </c>
+      <c r="C147">
+        <v>443</v>
+      </c>
+      <c r="F147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B148">
+        <v>444</v>
+      </c>
+      <c r="C148">
+        <v>444</v>
+      </c>
+      <c r="F148" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B149">
+        <v>445</v>
+      </c>
+      <c r="C149">
+        <v>445</v>
+      </c>
+      <c r="F149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B150">
+        <v>446</v>
+      </c>
+      <c r="C150">
+        <v>446</v>
+      </c>
+      <c r="F150" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B151">
+        <v>447</v>
+      </c>
+      <c r="C151">
+        <v>447</v>
+      </c>
+      <c r="F151" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B152">
+        <v>448</v>
+      </c>
+      <c r="C152">
+        <v>448</v>
+      </c>
+      <c r="F152" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B153">
+        <v>449</v>
+      </c>
+      <c r="C153">
+        <v>449</v>
+      </c>
+      <c r="F153" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B154">
+        <v>450</v>
+      </c>
+      <c r="C154">
+        <v>450</v>
+      </c>
+      <c r="F154" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B155">
+        <v>451</v>
+      </c>
+      <c r="C155">
+        <v>451</v>
+      </c>
+      <c r="F155" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B156">
+        <v>452</v>
+      </c>
+      <c r="C156">
+        <v>452</v>
+      </c>
+      <c r="F156" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B157">
+        <v>453</v>
+      </c>
+      <c r="C157">
+        <v>453</v>
+      </c>
+      <c r="F157" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B158">
+        <v>454</v>
+      </c>
+      <c r="C158">
+        <v>454</v>
+      </c>
+      <c r="F158" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B159">
+        <v>455</v>
+      </c>
+      <c r="C159">
+        <v>455</v>
+      </c>
+      <c r="F159" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160">
+        <v>456</v>
+      </c>
+      <c r="C160">
+        <v>456</v>
+      </c>
+      <c r="F160" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B161">
+        <v>457</v>
+      </c>
+      <c r="C161">
+        <v>457</v>
+      </c>
+      <c r="F161" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B162">
+        <v>458</v>
+      </c>
+      <c r="C162">
+        <v>458</v>
+      </c>
+      <c r="F162" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B163">
+        <v>459</v>
+      </c>
+      <c r="C163">
+        <v>459</v>
+      </c>
+      <c r="F163" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B164">
+        <v>460</v>
+      </c>
+      <c r="C164">
+        <v>460</v>
+      </c>
+      <c r="F164" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B165">
+        <v>461</v>
+      </c>
+      <c r="C165">
+        <v>461</v>
+      </c>
+      <c r="F165" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B166">
+        <v>462</v>
+      </c>
+      <c r="C166">
+        <v>462</v>
+      </c>
+      <c r="F166" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B167">
+        <v>463</v>
+      </c>
+      <c r="C167">
+        <v>463</v>
+      </c>
+      <c r="F167" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B168">
+        <v>464</v>
+      </c>
+      <c r="C168">
+        <v>464</v>
+      </c>
+      <c r="F168" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3439,8 +3846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3463,10 +3870,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="13" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>115</v>

--- a/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_1_site_202310.xlsx
+++ b/ONCHO/OEM/Nigeria/Oct 2023/ng_oncho_oem_1_site_202310.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bonhe\Repositories\dsa-forms\ONCHO\OEM\Nigeria\Oct 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F50520AF-6782-41F0-80BC-FBBB72C4C664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B083BD-6566-43D7-8DEF-773FC4292512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,10 +620,10 @@
     <t>PEDRO/BANKOLE STREET</t>
   </si>
   <si>
-    <t>ng_oncho_oem_1_site_202310</t>
-  </si>
-  <si>
-    <t>(2023 Oct) - 1. Site Form (Lagos)</t>
+    <t>ng_oncho_oem_1_site_202310_lagos</t>
+  </si>
+  <si>
+    <t>(2023 Oct) - Lagos - 1. Site Form</t>
   </si>
 </sst>
 </file>
